--- a/StudyPlan.xlsx
+++ b/StudyPlan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373349BA-821F-431C-8ACB-9C25C8A5D0EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B8CAE4-0D4B-4CF9-9780-B7F97F73953D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>S No.</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Changes made</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +428,9 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
   </sheetData>

--- a/StudyPlan.xlsx
+++ b/StudyPlan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B8CAE4-0D4B-4CF9-9780-B7F97F73953D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2B5D0C-1245-4DC3-B067-7B43ED7B20E5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>S No.</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Changes made</t>
   </si>
 </sst>
 </file>
@@ -384,7 +381,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,9 +425,7 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
   </sheetData>
